--- a/src/main/resources/templates/excel_template_short.xlsx
+++ b/src/main/resources/templates/excel_template_short.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="26835" windowHeight="13350"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="125725" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Фамилия</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>Колличество ужинов</t>
-  </si>
-  <si>
-    <t>Общая стоимость</t>
   </si>
   <si>
     <t>№</t>
@@ -40,8 +37,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,7 +87,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -101,9 +98,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -116,9 +116,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -156,7 +156,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -190,7 +190,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -225,10 +224,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -401,17 +399,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
@@ -421,19 +419,19 @@
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="18.75">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="42" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -446,14 +444,11 @@
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/src/main/resources/templates/excel_template_short.xlsx
+++ b/src/main/resources/templates/excel_template_short.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\vouchers\src\main\resources\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19E54B1-B2D4-4D23-B136-6A2C359F5BF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="26835" windowHeight="13350"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Фамилия</t>
   </si>
@@ -32,13 +38,16 @@
   </si>
   <si>
     <t>Месячный отчет за ${date}</t>
+  </si>
+  <si>
+    <t>Колличество завтраков</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,14 +105,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -111,14 +120,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -156,9 +168,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,9 +202,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -224,9 +254,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -399,37 +447,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" customWidth="1"/>
+    <col min="2" max="2" width="24.1796875" customWidth="1"/>
+    <col min="3" max="4" width="17.26953125" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
       <c r="F1" s="4"/>
+      <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="42" customHeight="1">
+    <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -440,15 +489,18 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
